--- a/dataset/70-30 Datasets/labeled by system/testing_comparisons.xlsx
+++ b/dataset/70-30 Datasets/labeled by system/testing_comparisons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renze\OneDrive\Documents\School\College\Acads\Thesis Development\sentiment-analysis-thesis\dataset\70-30 Datasets\labeled by system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF77605B-9DE2-456F-B254-7F90ADCFA803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F09DFC-49D7-41C3-83D5-293E75FB11A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2BA7F89F-82E1-4D0F-9499-5FE5C80948A7}"/>
   </bookViews>
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>268</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>262</v>
       </c>
